--- a/(1분반)2013136046_박주환_마이크로프로세서_재료구매신청서_최종.xlsx
+++ b/(1분반)2013136046_박주환_마이크로프로세서_재료구매신청서_최종.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2013136046\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +205,12 @@
   </si>
   <si>
     <t>1(EA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(EA)
+여유분
+포함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,6 +389,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,24 +417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,7 +1088,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,66 +1103,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>2013136046</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1196,11 +1197,11 @@
       <c r="C7" s="4">
         <v>4840</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="4">
-        <v>4840</v>
+        <v>9680</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>26</v>
@@ -1292,43 +1293,43 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="14">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="14">
         <v>238</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="17">
         <v>1190</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -1423,13 +1424,18 @@
       </c>
       <c r="E19" s="6">
         <f>SUM(E7:E18)</f>
-        <v>78760</v>
+        <v>83600</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
@@ -1437,11 +1443,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/(1분반)2013136046_박주환_마이크로프로세서_재료구매신청서_최종.xlsx
+++ b/(1분반)2013136046_박주환_마이크로프로세서_재료구매신청서_최종.xlsx
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://mechasolution.com/shop/goods/goods_view.php?goodsno=1209&amp;category=052001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5(EA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
     <t>2(EA)
 여유분
 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/mechasolution/products/380709863</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,6 +389,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,18 +417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,66 +1103,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <v>2013136046</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1198,7 +1198,7 @@
         <v>4840</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4">
         <v>9680</v>
@@ -1279,57 +1279,57 @@
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4">
-        <v>6600</v>
+        <v>2400</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8">
+        <v>238</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>6</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="14">
-        <v>238</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>1190</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="16"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -1357,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>1100</v>
@@ -1369,7 +1369,7 @@
         <v>2200</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1378,19 +1378,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4">
         <v>1210</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="4">
         <v>1210</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1399,19 +1399,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
         <v>3450</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4">
         <v>3450</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1424,18 +1424,13 @@
       </c>
       <c r="E19" s="6">
         <f>SUM(E7:E18)</f>
-        <v>83600</v>
+        <v>79400</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
@@ -1443,6 +1438,11 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1452,10 +1452,10 @@
     <hyperlink ref="F7" r:id="rId4"/>
     <hyperlink ref="F12" r:id="rId5"/>
     <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="F11" r:id="rId7"/>
-    <hyperlink ref="F16" r:id="rId8"/>
-    <hyperlink ref="F17" r:id="rId9"/>
-    <hyperlink ref="F18" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId7"/>
+    <hyperlink ref="F17" r:id="rId8"/>
+    <hyperlink ref="F18" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId11"/>
